--- a/steamcase/user/aliyunVideoAuthcase.xlsx
+++ b/steamcase/user/aliyunVideoAuthcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{57DD2684-94DB-42EA-AA6E-B519949B889C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8BC8E3C-AA3A-4230-B180-0F813347ABB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/user/aliyunVideoAuthcase.xlsx
+++ b/steamcase/user/aliyunVideoAuthcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8BC8E3C-AA3A-4230-B180-0F813347ABB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56FB76C6-1F16-47CF-B37A-D56AA000800F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,29 +55,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>video_auth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-course/course/queryAliyunVideoAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAliyunVideoAuthTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取视频播放的鉴权信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"currentPage":1
 "pageSize":10
 "resourceTypeId":1
-"keyword":"体验课"
-"chapterName":"第一章"
-"sectionName":"1、"
+"keyword":"武汉大学AutoCAD技术视频"
+"chapterName":"第一章 AutoCAD2007入门基础"
+"sectionName":"第一节 AutoCAD 的基本功能"
 "phoneNo":"18916899938"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>video_auth_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-course/course/queryAliyunVideoAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAliyunVideoAuthTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取视频播放的鉴权信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,14 +457,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="70.125" customWidth="1"/>
@@ -500,20 +500,20 @@
     </row>
     <row r="2" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
